--- a/APM/DATA/TABLES/CB_IEEE_39.xlsx
+++ b/APM/DATA/TABLES/CB_IEEE_39.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Instrucciones" sheetId="1" state="visible" r:id="rId2"/>
@@ -98,17 +98,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="111">
-  <si>
-    <t xml:space="preserve">Welcome to PywerAPM</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="109">
   <si>
     <t xml:space="preserve">Module 
 Circuit Breaker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calle 46 26-30 of. 605, Bogotá D.C.
-(+57) 3107669918</t>
   </si>
   <si>
     <t xml:space="preserve">Company</t>
@@ -1010,71 +1003,27 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>625320</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>50760</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>204480</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>150480</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Picture 1" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="625320" y="812520"/>
-          <a:ext cx="4471200" cy="2195280"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="9.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1083,7 +1032,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -1211,9 +1160,7 @@
       <c r="K19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1225,7 +1172,7 @@
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1238,7 +1185,7 @@
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1265,92 +1212,91 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="14.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="18.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="18.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="11.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="8" width="10.66"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1024" min="14" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="0" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="8" width="10.65"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1024" min="14" style="0" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" s="13" customFormat="true" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="I1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="J1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="M1" s="11" t="s">
         <v>13</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>18</v>
       </c>
       <c r="D2" s="16" t="n">
         <v>13</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F2" s="17" t="n">
         <v>2006</v>
@@ -1359,39 +1305,39 @@
         <v>230</v>
       </c>
       <c r="H2" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="K2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="L2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="M2" s="17" t="s">
         <v>23</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" s="22" t="n">
         <v>14</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F3" s="23" t="n">
         <v>2006</v>
@@ -1400,39 +1346,39 @@
         <v>500</v>
       </c>
       <c r="H3" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="23" t="s">
         <v>28</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="23" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" s="22" t="n">
         <v>15</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" s="23" t="n">
         <v>2010</v>
@@ -1441,39 +1387,39 @@
         <v>230</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J4" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="25" t="s">
-        <v>24</v>
-      </c>
       <c r="M4" s="23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" s="22" t="n">
         <v>16</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F5" s="23" t="n">
         <v>1997</v>
@@ -1482,39 +1428,39 @@
         <v>230</v>
       </c>
       <c r="H5" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="25" t="s">
+      <c r="K5" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="25" t="s">
-        <v>24</v>
-      </c>
       <c r="M5" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" s="22" t="n">
         <v>17</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F6" s="23" t="n">
         <v>2015</v>
@@ -1523,39 +1469,39 @@
         <v>500</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J6" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="25" t="s">
-        <v>24</v>
-      </c>
       <c r="M6" s="23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D7" s="22" t="n">
         <v>18</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F7" s="23" t="n">
         <v>2006</v>
@@ -1564,39 +1510,39 @@
         <v>500</v>
       </c>
       <c r="H7" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="23" t="s">
         <v>28</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" s="23" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8" s="22" t="n">
         <v>19</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F8" s="23" t="n">
         <v>2010</v>
@@ -1605,39 +1551,39 @@
         <v>230</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J8" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="25" t="s">
-        <v>24</v>
-      </c>
       <c r="M8" s="23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D9" s="22" t="n">
         <v>20</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F9" s="23" t="n">
         <v>1997</v>
@@ -1646,39 +1592,39 @@
         <v>230</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J9" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="25" t="s">
+      <c r="M9" s="23" t="s">
         <v>23</v>
-      </c>
-      <c r="L9" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="23" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D10" s="22" t="n">
         <v>21</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F10" s="23" t="n">
         <v>1997</v>
@@ -1687,39 +1633,39 @@
         <v>230</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J10" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="25" t="s">
-        <v>24</v>
-      </c>
       <c r="M10" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D11" s="22" t="n">
         <v>22</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F11" s="23" t="n">
         <v>2007</v>
@@ -1728,39 +1674,39 @@
         <v>230</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J11" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="25" t="s">
+      <c r="M11" s="23" t="s">
         <v>23</v>
-      </c>
-      <c r="L11" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11" s="23" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D12" s="22" t="n">
         <v>23</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F12" s="23" t="n">
         <v>1997</v>
@@ -1769,39 +1715,39 @@
         <v>230</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J12" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="25" t="s">
+      <c r="M12" s="23" t="s">
         <v>23</v>
-      </c>
-      <c r="L12" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="M12" s="23" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D13" s="22" t="n">
         <v>24</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F13" s="23" t="n">
         <v>1997</v>
@@ -1810,39 +1756,39 @@
         <v>230</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J13" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="L13" s="25" t="s">
-        <v>24</v>
-      </c>
       <c r="M13" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D14" s="22" t="n">
         <v>25</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F14" s="23" t="n">
         <v>2007</v>
@@ -1851,39 +1797,39 @@
         <v>230</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J14" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="25" t="s">
+      <c r="M14" s="23" t="s">
         <v>23</v>
-      </c>
-      <c r="L14" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="M14" s="23" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D15" s="22" t="n">
         <v>26</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F15" s="23" t="n">
         <v>2006</v>
@@ -1892,39 +1838,39 @@
         <v>230</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J15" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="K15" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="L15" s="25" t="s">
-        <v>24</v>
-      </c>
       <c r="M15" s="23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D16" s="22" t="n">
         <v>27</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F16" s="23" t="n">
         <v>1997</v>
@@ -1933,39 +1879,39 @@
         <v>230</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J16" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="K16" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="L16" s="25" t="s">
-        <v>24</v>
-      </c>
       <c r="M16" s="23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D17" s="22" t="n">
         <v>28</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F17" s="23" t="n">
         <v>1997</v>
@@ -1974,39 +1920,39 @@
         <v>115</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J17" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="L17" s="25" t="s">
-        <v>24</v>
-      </c>
       <c r="M17" s="23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D18" s="22" t="n">
         <v>29</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F18" s="23" t="n">
         <v>1997</v>
@@ -2015,39 +1961,39 @@
         <v>115</v>
       </c>
       <c r="H18" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="I18" s="24" t="s">
+      <c r="K18" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="23" t="s">
         <v>78</v>
-      </c>
-      <c r="J18" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="K18" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="L18" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="M18" s="23" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D19" s="22" t="n">
         <v>30</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F19" s="23" t="n">
         <v>2016</v>
@@ -2056,39 +2002,39 @@
         <v>115</v>
       </c>
       <c r="H19" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="I19" s="24" t="s">
+      <c r="K19" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="23" t="s">
         <v>84</v>
-      </c>
-      <c r="J19" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="K19" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="L19" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="M19" s="23" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D20" s="22" t="n">
         <v>31</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F20" s="23" t="n">
         <v>1997</v>
@@ -2097,22 +2043,22 @@
         <v>115</v>
       </c>
       <c r="H20" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="K20" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" s="23" t="s">
         <v>89</v>
-      </c>
-      <c r="I20" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="J20" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="K20" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="L20" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="M20" s="23" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2160,7 +2106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2170,39 +2116,39 @@
       <selection pane="topLeft" activeCell="F118" activeCellId="0" sqref="F118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="0" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="F1" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="35" t="s">
+      <c r="G1" s="37" t="s">
         <v>94</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="G1" s="37" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2210,13 +2156,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="17" t="n">
         <v>13</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E2" s="39" t="n">
         <v>42116</v>
@@ -2233,13 +2179,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="23" t="n">
         <v>13</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E3" s="39" t="n">
         <v>42172</v>
@@ -2256,13 +2202,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="23" t="n">
         <v>13</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E4" s="39" t="n">
         <v>42350</v>
@@ -2279,13 +2225,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="23" t="n">
         <v>13</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E5" s="45" t="n">
         <v>42929</v>
@@ -2302,13 +2248,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="23" t="n">
         <v>13</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E6" s="39" t="n">
         <v>43272</v>
@@ -2325,13 +2271,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="23" t="n">
         <v>13</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E7" s="39" t="n">
         <v>43542</v>
@@ -2348,13 +2294,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" s="23" t="n">
         <v>14</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E8" s="39" t="n">
         <v>40956</v>
@@ -2371,13 +2317,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="23" t="n">
         <v>14</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E9" s="39" t="n">
         <v>41523</v>
@@ -2394,13 +2340,13 @@
         <v>10</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" s="23" t="n">
         <v>14</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E10" s="39" t="n">
         <v>41785</v>
@@ -2417,13 +2363,13 @@
         <v>11</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" s="23" t="n">
         <v>14</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E11" s="39" t="n">
         <v>42173</v>
@@ -2440,13 +2386,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" s="23" t="n">
         <v>14</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E12" s="39" t="n">
         <v>42933</v>
@@ -2463,13 +2409,13 @@
         <v>13</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" s="23" t="n">
         <v>14</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E13" s="39" t="n">
         <v>43476</v>
@@ -2486,13 +2432,13 @@
         <v>14</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" s="23" t="n">
         <v>15</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E14" s="39" t="n">
         <v>40781</v>
@@ -2509,13 +2455,13 @@
         <v>15</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="23" t="n">
         <v>15</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E15" s="39" t="n">
         <v>41542</v>
@@ -2532,13 +2478,13 @@
         <v>16</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" s="23" t="n">
         <v>15</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E16" s="39" t="n">
         <v>41838</v>
@@ -2555,13 +2501,13 @@
         <v>17</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C17" s="23" t="n">
         <v>15</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E17" s="39" t="n">
         <v>42116</v>
@@ -2578,13 +2524,13 @@
         <v>18</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C18" s="23" t="n">
         <v>15</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E18" s="39" t="n">
         <v>42913</v>
@@ -2601,13 +2547,13 @@
         <v>19</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C19" s="23" t="n">
         <v>15</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E19" s="39" t="n">
         <v>43476</v>
@@ -2624,13 +2570,13 @@
         <v>20</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C20" s="23" t="n">
         <v>15</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E20" s="39" t="n">
         <v>43516</v>
@@ -2647,13 +2593,13 @@
         <v>21</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C21" s="23" t="n">
         <v>16</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E21" s="39" t="n">
         <v>42116</v>
@@ -2670,13 +2616,13 @@
         <v>22</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C22" s="23" t="n">
         <v>16</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E22" s="39" t="n">
         <v>42172</v>
@@ -2693,13 +2639,13 @@
         <v>24</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C23" s="23" t="n">
         <v>16</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E23" s="39" t="n">
         <v>42350</v>
@@ -2716,13 +2662,13 @@
         <v>25</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C24" s="23" t="n">
         <v>16</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E24" s="45" t="n">
         <v>42929</v>
@@ -2739,13 +2685,13 @@
         <v>26</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C25" s="23" t="n">
         <v>16</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E25" s="39" t="n">
         <v>43272</v>
@@ -2762,13 +2708,13 @@
         <v>27</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C26" s="23" t="n">
         <v>16</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E26" s="39" t="n">
         <v>43542</v>
@@ -2785,13 +2731,13 @@
         <v>28</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C27" s="23" t="n">
         <v>17</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E27" s="39" t="n">
         <v>40956</v>
@@ -2808,13 +2754,13 @@
         <v>29</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C28" s="23" t="n">
         <v>17</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E28" s="39" t="n">
         <v>41523</v>
@@ -2831,13 +2777,13 @@
         <v>30</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C29" s="23" t="n">
         <v>17</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E29" s="39" t="n">
         <v>41785</v>
@@ -2854,13 +2800,13 @@
         <v>31</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C30" s="23" t="n">
         <v>17</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E30" s="39" t="n">
         <v>42173</v>
@@ -2877,13 +2823,13 @@
         <v>32</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C31" s="23" t="n">
         <v>17</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E31" s="39" t="n">
         <v>42933</v>
@@ -2900,13 +2846,13 @@
         <v>33</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C32" s="23" t="n">
         <v>17</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E32" s="39" t="n">
         <v>43476</v>
@@ -2923,13 +2869,13 @@
         <v>34</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C33" s="23" t="n">
         <v>18</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E33" s="39" t="n">
         <v>40781</v>
@@ -2946,13 +2892,13 @@
         <v>35</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C34" s="23" t="n">
         <v>18</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E34" s="39" t="n">
         <v>41542</v>
@@ -2969,13 +2915,13 @@
         <v>36</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C35" s="23" t="n">
         <v>18</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E35" s="39" t="n">
         <v>41838</v>
@@ -2992,13 +2938,13 @@
         <v>37</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C36" s="23" t="n">
         <v>18</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E36" s="39" t="n">
         <v>42116</v>
@@ -3015,13 +2961,13 @@
         <v>38</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C37" s="23" t="n">
         <v>18</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E37" s="39" t="n">
         <v>42913</v>
@@ -3038,13 +2984,13 @@
         <v>39</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C38" s="23" t="n">
         <v>18</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E38" s="39" t="n">
         <v>43476</v>
@@ -3061,13 +3007,13 @@
         <v>40</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C39" s="23" t="n">
         <v>18</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E39" s="39" t="n">
         <v>43516</v>
@@ -3084,13 +3030,13 @@
         <v>41</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C40" s="23" t="n">
         <v>19</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E40" s="39" t="n">
         <v>42116</v>
@@ -3107,13 +3053,13 @@
         <v>42</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C41" s="23" t="n">
         <v>19</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E41" s="39" t="n">
         <v>42172</v>
@@ -3130,13 +3076,13 @@
         <v>44</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C42" s="23" t="n">
         <v>19</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E42" s="39" t="n">
         <v>42350</v>
@@ -3153,13 +3099,13 @@
         <v>45</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C43" s="23" t="n">
         <v>19</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E43" s="45" t="n">
         <v>42929</v>
@@ -3176,13 +3122,13 @@
         <v>46</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C44" s="23" t="n">
         <v>19</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E44" s="39" t="n">
         <v>43272</v>
@@ -3199,13 +3145,13 @@
         <v>47</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C45" s="23" t="n">
         <v>19</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E45" s="39" t="n">
         <v>43542</v>
@@ -3222,13 +3168,13 @@
         <v>48</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C46" s="23" t="n">
         <v>20</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E46" s="39" t="n">
         <v>40956</v>
@@ -3245,13 +3191,13 @@
         <v>49</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C47" s="23" t="n">
         <v>20</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E47" s="39" t="n">
         <v>41523</v>
@@ -3268,13 +3214,13 @@
         <v>50</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C48" s="23" t="n">
         <v>20</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E48" s="39" t="n">
         <v>41785</v>
@@ -3291,13 +3237,13 @@
         <v>51</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C49" s="23" t="n">
         <v>20</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E49" s="39" t="n">
         <v>42173</v>
@@ -3314,13 +3260,13 @@
         <v>52</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C50" s="23" t="n">
         <v>20</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E50" s="39" t="n">
         <v>42933</v>
@@ -3337,13 +3283,13 @@
         <v>53</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C51" s="23" t="n">
         <v>20</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E51" s="39" t="n">
         <v>43476</v>
@@ -3360,13 +3306,13 @@
         <v>54</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C52" s="23" t="n">
         <v>21</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E52" s="39" t="n">
         <v>40781</v>
@@ -3383,13 +3329,13 @@
         <v>55</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C53" s="23" t="n">
         <v>21</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E53" s="39" t="n">
         <v>41542</v>
@@ -3406,13 +3352,13 @@
         <v>56</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C54" s="23" t="n">
         <v>21</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E54" s="39" t="n">
         <v>41838</v>
@@ -3429,13 +3375,13 @@
         <v>57</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C55" s="23" t="n">
         <v>21</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E55" s="39" t="n">
         <v>42116</v>
@@ -3452,13 +3398,13 @@
         <v>58</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C56" s="23" t="n">
         <v>21</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E56" s="39" t="n">
         <v>42913</v>
@@ -3475,13 +3421,13 @@
         <v>59</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C57" s="23" t="n">
         <v>21</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E57" s="39" t="n">
         <v>43476</v>
@@ -3498,13 +3444,13 @@
         <v>60</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C58" s="23" t="n">
         <v>21</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E58" s="39" t="n">
         <v>43516</v>
@@ -3521,13 +3467,13 @@
         <v>61</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C59" s="23" t="n">
         <v>22</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E59" s="39" t="n">
         <v>40781</v>
@@ -3544,13 +3490,13 @@
         <v>62</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C60" s="23" t="n">
         <v>22</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E60" s="39" t="n">
         <v>41542</v>
@@ -3567,13 +3513,13 @@
         <v>63</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C61" s="23" t="n">
         <v>22</v>
       </c>
       <c r="D61" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E61" s="39" t="n">
         <v>41838</v>
@@ -3590,13 +3536,13 @@
         <v>64</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C62" s="23" t="n">
         <v>22</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E62" s="39" t="n">
         <v>42116</v>
@@ -3613,13 +3559,13 @@
         <v>65</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C63" s="23" t="n">
         <v>22</v>
       </c>
       <c r="D63" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E63" s="39" t="n">
         <v>42913</v>
@@ -3636,13 +3582,13 @@
         <v>66</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C64" s="23" t="n">
         <v>22</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E64" s="39" t="n">
         <v>43476</v>
@@ -3659,13 +3605,13 @@
         <v>67</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C65" s="23" t="n">
         <v>22</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E65" s="39" t="n">
         <v>43516</v>
@@ -3682,13 +3628,13 @@
         <v>68</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C66" s="23" t="n">
         <v>23</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E66" s="39" t="n">
         <v>42116</v>
@@ -3705,13 +3651,13 @@
         <v>69</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C67" s="23" t="n">
         <v>23</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E67" s="39" t="n">
         <v>42172</v>
@@ -3728,13 +3674,13 @@
         <v>71</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C68" s="23" t="n">
         <v>23</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E68" s="39" t="n">
         <v>42350</v>
@@ -3751,13 +3697,13 @@
         <v>72</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C69" s="23" t="n">
         <v>23</v>
       </c>
       <c r="D69" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E69" s="45" t="n">
         <v>42929</v>
@@ -3774,13 +3720,13 @@
         <v>73</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C70" s="23" t="n">
         <v>23</v>
       </c>
       <c r="D70" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E70" s="39" t="n">
         <v>43272</v>
@@ -3797,13 +3743,13 @@
         <v>74</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C71" s="23" t="n">
         <v>23</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E71" s="39" t="n">
         <v>43542</v>
@@ -3820,13 +3766,13 @@
         <v>75</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C72" s="23" t="n">
         <v>24</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E72" s="39" t="n">
         <v>40956</v>
@@ -3843,13 +3789,13 @@
         <v>76</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C73" s="23" t="n">
         <v>24</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E73" s="39" t="n">
         <v>41523</v>
@@ -3866,13 +3812,13 @@
         <v>77</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C74" s="23" t="n">
         <v>24</v>
       </c>
       <c r="D74" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E74" s="39" t="n">
         <v>41785</v>
@@ -3889,13 +3835,13 @@
         <v>78</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C75" s="23" t="n">
         <v>24</v>
       </c>
       <c r="D75" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E75" s="39" t="n">
         <v>42173</v>
@@ -3912,13 +3858,13 @@
         <v>79</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C76" s="23" t="n">
         <v>24</v>
       </c>
       <c r="D76" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E76" s="39" t="n">
         <v>42933</v>
@@ -3935,13 +3881,13 @@
         <v>80</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C77" s="23" t="n">
         <v>24</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E77" s="39" t="n">
         <v>43476</v>
@@ -3958,13 +3904,13 @@
         <v>81</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C78" s="23" t="n">
         <v>25</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E78" s="39" t="n">
         <v>40781</v>
@@ -3981,13 +3927,13 @@
         <v>82</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C79" s="23" t="n">
         <v>25</v>
       </c>
       <c r="D79" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E79" s="39" t="n">
         <v>41542</v>
@@ -4004,13 +3950,13 @@
         <v>83</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C80" s="23" t="n">
         <v>25</v>
       </c>
       <c r="D80" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E80" s="39" t="n">
         <v>41838</v>
@@ -4027,13 +3973,13 @@
         <v>84</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C81" s="23" t="n">
         <v>25</v>
       </c>
       <c r="D81" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E81" s="39" t="n">
         <v>42116</v>
@@ -4050,13 +3996,13 @@
         <v>85</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C82" s="23" t="n">
         <v>25</v>
       </c>
       <c r="D82" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E82" s="39" t="n">
         <v>42913</v>
@@ -4073,13 +4019,13 @@
         <v>86</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C83" s="23" t="n">
         <v>25</v>
       </c>
       <c r="D83" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E83" s="39" t="n">
         <v>43476</v>
@@ -4096,13 +4042,13 @@
         <v>87</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C84" s="23" t="n">
         <v>25</v>
       </c>
       <c r="D84" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E84" s="39" t="n">
         <v>43516</v>
@@ -4119,13 +4065,13 @@
         <v>88</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C85" s="23" t="n">
         <v>26</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E85" s="39" t="n">
         <v>42116</v>
@@ -4142,13 +4088,13 @@
         <v>89</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C86" s="23" t="n">
         <v>26</v>
       </c>
       <c r="D86" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E86" s="39" t="n">
         <v>42172</v>
@@ -4165,13 +4111,13 @@
         <v>91</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C87" s="23" t="n">
         <v>26</v>
       </c>
       <c r="D87" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E87" s="39" t="n">
         <v>42350</v>
@@ -4188,13 +4134,13 @@
         <v>92</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C88" s="23" t="n">
         <v>26</v>
       </c>
       <c r="D88" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E88" s="45" t="n">
         <v>42929</v>
@@ -4211,13 +4157,13 @@
         <v>93</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C89" s="23" t="n">
         <v>26</v>
       </c>
       <c r="D89" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E89" s="39" t="n">
         <v>43272</v>
@@ -4234,13 +4180,13 @@
         <v>94</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C90" s="23" t="n">
         <v>26</v>
       </c>
       <c r="D90" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E90" s="39" t="n">
         <v>43542</v>
@@ -4257,13 +4203,13 @@
         <v>95</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C91" s="23" t="n">
         <v>27</v>
       </c>
       <c r="D91" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E91" s="39" t="n">
         <v>40956</v>
@@ -4280,13 +4226,13 @@
         <v>96</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C92" s="23" t="n">
         <v>27</v>
       </c>
       <c r="D92" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E92" s="39" t="n">
         <v>41523</v>
@@ -4303,13 +4249,13 @@
         <v>97</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C93" s="23" t="n">
         <v>27</v>
       </c>
       <c r="D93" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E93" s="39" t="n">
         <v>41785</v>
@@ -4326,13 +4272,13 @@
         <v>98</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C94" s="23" t="n">
         <v>27</v>
       </c>
       <c r="D94" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E94" s="39" t="n">
         <v>42173</v>
@@ -4349,13 +4295,13 @@
         <v>99</v>
       </c>
       <c r="B95" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C95" s="23" t="n">
         <v>27</v>
       </c>
       <c r="D95" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E95" s="39" t="n">
         <v>42933</v>
@@ -4372,13 +4318,13 @@
         <v>100</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C96" s="23" t="n">
         <v>27</v>
       </c>
       <c r="D96" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E96" s="39" t="n">
         <v>43476</v>
@@ -4395,13 +4341,13 @@
         <v>101</v>
       </c>
       <c r="B97" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C97" s="23" t="n">
         <v>28</v>
       </c>
       <c r="D97" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E97" s="39" t="n">
         <v>40781</v>
@@ -4418,13 +4364,13 @@
         <v>102</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C98" s="23" t="n">
         <v>28</v>
       </c>
       <c r="D98" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E98" s="39" t="n">
         <v>41542</v>
@@ -4441,13 +4387,13 @@
         <v>103</v>
       </c>
       <c r="B99" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C99" s="23" t="n">
         <v>28</v>
       </c>
       <c r="D99" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E99" s="39" t="n">
         <v>41838</v>
@@ -4464,13 +4410,13 @@
         <v>104</v>
       </c>
       <c r="B100" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C100" s="23" t="n">
         <v>28</v>
       </c>
       <c r="D100" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E100" s="39" t="n">
         <v>42116</v>
@@ -4487,13 +4433,13 @@
         <v>105</v>
       </c>
       <c r="B101" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C101" s="23" t="n">
         <v>28</v>
       </c>
       <c r="D101" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E101" s="39" t="n">
         <v>42913</v>
@@ -4510,13 +4456,13 @@
         <v>106</v>
       </c>
       <c r="B102" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C102" s="23" t="n">
         <v>28</v>
       </c>
       <c r="D102" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E102" s="39" t="n">
         <v>43476</v>
@@ -4533,13 +4479,13 @@
         <v>107</v>
       </c>
       <c r="B103" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C103" s="23" t="n">
         <v>28</v>
       </c>
       <c r="D103" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E103" s="39" t="n">
         <v>43516</v>
@@ -4556,13 +4502,13 @@
         <v>108</v>
       </c>
       <c r="B104" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C104" s="23" t="n">
         <v>29</v>
       </c>
       <c r="D104" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E104" s="39" t="n">
         <v>40781</v>
@@ -4579,13 +4525,13 @@
         <v>109</v>
       </c>
       <c r="B105" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C105" s="23" t="n">
         <v>29</v>
       </c>
       <c r="D105" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E105" s="39" t="n">
         <v>41542</v>
@@ -4602,13 +4548,13 @@
         <v>110</v>
       </c>
       <c r="B106" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C106" s="23" t="n">
         <v>29</v>
       </c>
       <c r="D106" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E106" s="39" t="n">
         <v>41838</v>
@@ -4625,13 +4571,13 @@
         <v>111</v>
       </c>
       <c r="B107" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C107" s="23" t="n">
         <v>29</v>
       </c>
       <c r="D107" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E107" s="39" t="n">
         <v>42116</v>
@@ -4648,13 +4594,13 @@
         <v>112</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C108" s="23" t="n">
         <v>29</v>
       </c>
       <c r="D108" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E108" s="39" t="n">
         <v>42913</v>
@@ -4671,13 +4617,13 @@
         <v>113</v>
       </c>
       <c r="B109" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C109" s="23" t="n">
         <v>29</v>
       </c>
       <c r="D109" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E109" s="39" t="n">
         <v>43476</v>
@@ -4694,13 +4640,13 @@
         <v>114</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C110" s="23" t="n">
         <v>29</v>
       </c>
       <c r="D110" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E110" s="39" t="n">
         <v>43516</v>
@@ -4717,13 +4663,13 @@
         <v>115</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C111" s="23" t="n">
         <v>30</v>
       </c>
       <c r="D111" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E111" s="39" t="n">
         <v>42116</v>
@@ -4740,13 +4686,13 @@
         <v>116</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C112" s="23" t="n">
         <v>30</v>
       </c>
       <c r="D112" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E112" s="39" t="n">
         <v>42172</v>
@@ -4763,13 +4709,13 @@
         <v>117</v>
       </c>
       <c r="B113" s="23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C113" s="23" t="n">
         <v>30</v>
       </c>
       <c r="D113" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E113" s="39" t="n">
         <v>42350</v>
@@ -4786,13 +4732,13 @@
         <v>118</v>
       </c>
       <c r="B114" s="23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C114" s="23" t="n">
         <v>30</v>
       </c>
       <c r="D114" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E114" s="45" t="n">
         <v>42929</v>
@@ -4809,13 +4755,13 @@
         <v>119</v>
       </c>
       <c r="B115" s="23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C115" s="23" t="n">
         <v>30</v>
       </c>
       <c r="D115" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E115" s="39" t="n">
         <v>43272</v>
@@ -4832,13 +4778,13 @@
         <v>120</v>
       </c>
       <c r="B116" s="23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C116" s="23" t="n">
         <v>30</v>
       </c>
       <c r="D116" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E116" s="39" t="n">
         <v>43542</v>
@@ -4855,13 +4801,13 @@
         <v>121</v>
       </c>
       <c r="B117" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C117" s="22" t="n">
         <v>31</v>
       </c>
       <c r="D117" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E117" s="39" t="n">
         <v>40956</v>
@@ -4878,13 +4824,13 @@
         <v>122</v>
       </c>
       <c r="B118" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C118" s="22" t="n">
         <v>31</v>
       </c>
       <c r="D118" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E118" s="39" t="n">
         <v>41523</v>
@@ -4901,13 +4847,13 @@
         <v>123</v>
       </c>
       <c r="B119" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C119" s="22" t="n">
         <v>31</v>
       </c>
       <c r="D119" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E119" s="39" t="n">
         <v>41785</v>
@@ -4924,13 +4870,13 @@
         <v>124</v>
       </c>
       <c r="B120" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C120" s="22" t="n">
         <v>31</v>
       </c>
       <c r="D120" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E120" s="39" t="n">
         <v>42173</v>
@@ -4947,13 +4893,13 @@
         <v>125</v>
       </c>
       <c r="B121" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C121" s="22" t="n">
         <v>31</v>
       </c>
       <c r="D121" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E121" s="39" t="n">
         <v>42933</v>
@@ -4970,13 +4916,13 @@
         <v>126</v>
       </c>
       <c r="B122" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C122" s="22" t="n">
         <v>31</v>
       </c>
       <c r="D122" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E122" s="39" t="n">
         <v>43476</v>
@@ -10622,7 +10568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -10632,55 +10578,55 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="8" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="8" style="0" width="14.01"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="0" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>94</v>
-      </c>
       <c r="F1" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="I1" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="J1" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="K1" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="L1" s="37" t="s">
         <v>102</v>
-      </c>
-      <c r="K1" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="L1" s="37" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10688,13 +10634,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="17" t="n">
         <v>13</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E2" s="39" t="n">
         <v>42116</v>
@@ -10716,13 +10662,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="23" t="n">
         <v>13</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E3" s="45" t="n">
         <v>42929</v>
@@ -10744,13 +10690,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="23" t="n">
         <v>13</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E4" s="39" t="n">
         <v>43272</v>
@@ -10772,13 +10718,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="23" t="n">
         <v>13</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E5" s="39" t="n">
         <v>43542</v>
@@ -10800,13 +10746,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="23" t="n">
         <v>14</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E6" s="39" t="n">
         <v>40956</v>
@@ -10828,13 +10774,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="23" t="n">
         <v>14</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E7" s="39" t="n">
         <v>41523</v>
@@ -10856,13 +10802,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" s="23" t="n">
         <v>14</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E8" s="39" t="n">
         <v>41785</v>
@@ -10884,13 +10830,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="23" t="n">
         <v>14</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E9" s="39" t="n">
         <v>42933</v>
@@ -10912,13 +10858,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" s="23" t="n">
         <v>14</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E10" s="39" t="n">
         <v>43476</v>
@@ -10940,13 +10886,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="23" t="n">
         <v>15</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E11" s="39" t="n">
         <v>40781</v>
@@ -10968,13 +10914,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" s="23" t="n">
         <v>15</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E12" s="39" t="n">
         <v>41838</v>
@@ -10996,13 +10942,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" s="23" t="n">
         <v>15</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E13" s="39" t="n">
         <v>42116</v>
@@ -11024,13 +10970,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" s="23" t="n">
         <v>15</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E14" s="39" t="n">
         <v>42913</v>
@@ -11052,13 +10998,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="23" t="n">
         <v>15</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E15" s="39" t="n">
         <v>43476</v>
@@ -11080,13 +11026,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" s="23" t="n">
         <v>15</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E16" s="39" t="n">
         <v>43516</v>
@@ -11108,13 +11054,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17" s="23" t="n">
         <v>16</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E17" s="39" t="n">
         <v>42116</v>
@@ -11136,13 +11082,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C18" s="23" t="n">
         <v>16</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E18" s="39" t="n">
         <v>42350</v>
@@ -11164,13 +11110,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C19" s="23" t="n">
         <v>16</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E19" s="39" t="n">
         <v>43272</v>
@@ -11192,13 +11138,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C20" s="23" t="n">
         <v>16</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E20" s="39" t="n">
         <v>43542</v>
@@ -11220,13 +11166,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C21" s="23" t="n">
         <v>17</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E21" s="39" t="n">
         <v>40956</v>
@@ -11248,13 +11194,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C22" s="23" t="n">
         <v>17</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E22" s="39" t="n">
         <v>41785</v>
@@ -11276,13 +11222,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C23" s="23" t="n">
         <v>17</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E23" s="39" t="n">
         <v>42173</v>
@@ -11304,13 +11250,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C24" s="23" t="n">
         <v>17</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E24" s="39" t="n">
         <v>43476</v>
@@ -11332,13 +11278,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C25" s="23" t="n">
         <v>18</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E25" s="39" t="n">
         <v>40781</v>
@@ -11360,13 +11306,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C26" s="23" t="n">
         <v>18</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E26" s="39" t="n">
         <v>41542</v>
@@ -11388,13 +11334,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C27" s="23" t="n">
         <v>18</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E27" s="39" t="n">
         <v>41838</v>
@@ -11416,13 +11362,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C28" s="23" t="n">
         <v>18</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E28" s="39" t="n">
         <v>42913</v>
@@ -11444,13 +11390,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C29" s="23" t="n">
         <v>18</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E29" s="39" t="n">
         <v>43476</v>
@@ -11472,13 +11418,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C30" s="23" t="n">
         <v>18</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E30" s="39" t="n">
         <v>43516</v>
@@ -11500,13 +11446,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C31" s="23" t="n">
         <v>19</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E31" s="39" t="n">
         <v>42172</v>
@@ -11528,13 +11474,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C32" s="23" t="n">
         <v>19</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E32" s="39" t="n">
         <v>42350</v>
@@ -11556,13 +11502,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C33" s="23" t="n">
         <v>19</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E33" s="45" t="n">
         <v>42929</v>
@@ -11584,13 +11530,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C34" s="23" t="n">
         <v>19</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E34" s="39" t="n">
         <v>43272</v>
@@ -11612,13 +11558,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C35" s="23" t="n">
         <v>19</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E35" s="39" t="n">
         <v>43542</v>
@@ -11640,13 +11586,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C36" s="23" t="n">
         <v>20</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E36" s="39" t="n">
         <v>41523</v>
@@ -11668,13 +11614,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C37" s="23" t="n">
         <v>20</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E37" s="39" t="n">
         <v>41785</v>
@@ -11696,13 +11642,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C38" s="23" t="n">
         <v>20</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E38" s="39" t="n">
         <v>42173</v>
@@ -11724,13 +11670,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C39" s="23" t="n">
         <v>20</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E39" s="39" t="n">
         <v>43476</v>
@@ -11752,13 +11698,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C40" s="23" t="n">
         <v>21</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E40" s="39" t="n">
         <v>40781</v>
@@ -11780,13 +11726,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C41" s="23" t="n">
         <v>21</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E41" s="39" t="n">
         <v>41542</v>
@@ -11808,13 +11754,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C42" s="23" t="n">
         <v>21</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E42" s="39" t="n">
         <v>41838</v>
@@ -11836,13 +11782,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C43" s="23" t="n">
         <v>21</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E43" s="39" t="n">
         <v>42913</v>
@@ -11864,13 +11810,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C44" s="23" t="n">
         <v>21</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E44" s="39" t="n">
         <v>43476</v>
@@ -11892,13 +11838,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C45" s="23" t="n">
         <v>21</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E45" s="39" t="n">
         <v>43516</v>
@@ -11920,13 +11866,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C46" s="23" t="n">
         <v>22</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E46" s="39" t="n">
         <v>40781</v>
@@ -11948,13 +11894,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C47" s="23" t="n">
         <v>22</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E47" s="39" t="n">
         <v>41838</v>
@@ -11976,13 +11922,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C48" s="23" t="n">
         <v>22</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E48" s="39" t="n">
         <v>42116</v>
@@ -12004,13 +11950,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C49" s="23" t="n">
         <v>22</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E49" s="39" t="n">
         <v>42913</v>
@@ -12032,13 +11978,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C50" s="23" t="n">
         <v>22</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E50" s="39" t="n">
         <v>43516</v>
@@ -12060,13 +12006,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C51" s="23" t="n">
         <v>23</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E51" s="39" t="n">
         <v>42116</v>
@@ -12088,13 +12034,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C52" s="23" t="n">
         <v>23</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E52" s="39" t="n">
         <v>42350</v>
@@ -12116,13 +12062,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C53" s="23" t="n">
         <v>23</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E53" s="45" t="n">
         <v>42929</v>
@@ -12144,13 +12090,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C54" s="23" t="n">
         <v>23</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E54" s="39" t="n">
         <v>43542</v>
@@ -12172,13 +12118,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C55" s="23" t="n">
         <v>24</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E55" s="39" t="n">
         <v>40956</v>
@@ -12200,13 +12146,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C56" s="23" t="n">
         <v>24</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E56" s="39" t="n">
         <v>42173</v>
@@ -12228,13 +12174,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C57" s="23" t="n">
         <v>24</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E57" s="39" t="n">
         <v>42933</v>
@@ -12256,13 +12202,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C58" s="23" t="n">
         <v>24</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E58" s="39" t="n">
         <v>43476</v>
@@ -12284,13 +12230,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C59" s="23" t="n">
         <v>25</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E59" s="39" t="n">
         <v>40781</v>
@@ -12312,13 +12258,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C60" s="23" t="n">
         <v>25</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E60" s="39" t="n">
         <v>41838</v>
@@ -12340,13 +12286,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C61" s="23" t="n">
         <v>25</v>
       </c>
       <c r="D61" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E61" s="39" t="n">
         <v>42913</v>
@@ -12368,13 +12314,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C62" s="23" t="n">
         <v>25</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E62" s="39" t="n">
         <v>43476</v>
@@ -12396,13 +12342,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C63" s="23" t="n">
         <v>25</v>
       </c>
       <c r="D63" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E63" s="39" t="n">
         <v>43516</v>
@@ -12424,13 +12370,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C64" s="23" t="n">
         <v>26</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E64" s="39" t="n">
         <v>42116</v>
@@ -12452,13 +12398,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C65" s="23" t="n">
         <v>26</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E65" s="39" t="n">
         <v>42172</v>
@@ -12480,13 +12426,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C66" s="23" t="n">
         <v>26</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E66" s="39" t="n">
         <v>42350</v>
@@ -12508,13 +12454,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C67" s="23" t="n">
         <v>26</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E67" s="39" t="n">
         <v>43272</v>
@@ -12536,13 +12482,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C68" s="23" t="n">
         <v>26</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E68" s="39" t="n">
         <v>43542</v>
@@ -12564,13 +12510,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C69" s="23" t="n">
         <v>27</v>
       </c>
       <c r="D69" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E69" s="39" t="n">
         <v>40956</v>
@@ -12592,13 +12538,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C70" s="23" t="n">
         <v>27</v>
       </c>
       <c r="D70" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E70" s="39" t="n">
         <v>41523</v>
@@ -12620,13 +12566,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C71" s="23" t="n">
         <v>27</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E71" s="39" t="n">
         <v>41785</v>
@@ -12648,13 +12594,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C72" s="23" t="n">
         <v>27</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E72" s="39" t="n">
         <v>42173</v>
@@ -12676,13 +12622,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C73" s="23" t="n">
         <v>27</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E73" s="39" t="n">
         <v>42933</v>
@@ -12704,13 +12650,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C74" s="23" t="n">
         <v>27</v>
       </c>
       <c r="D74" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E74" s="39" t="n">
         <v>43476</v>
@@ -12732,13 +12678,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C75" s="23" t="n">
         <v>28</v>
       </c>
       <c r="D75" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E75" s="39" t="n">
         <v>40781</v>
@@ -12760,13 +12706,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C76" s="23" t="n">
         <v>28</v>
       </c>
       <c r="D76" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E76" s="39" t="n">
         <v>41542</v>
@@ -12788,13 +12734,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C77" s="23" t="n">
         <v>28</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E77" s="39" t="n">
         <v>41838</v>
@@ -12816,13 +12762,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C78" s="23" t="n">
         <v>28</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E78" s="39" t="n">
         <v>42913</v>
@@ -12844,13 +12790,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C79" s="23" t="n">
         <v>28</v>
       </c>
       <c r="D79" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E79" s="39" t="n">
         <v>43476</v>
@@ -12872,13 +12818,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C80" s="23" t="n">
         <v>28</v>
       </c>
       <c r="D80" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E80" s="39" t="n">
         <v>43516</v>
@@ -12900,13 +12846,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C81" s="23" t="n">
         <v>29</v>
       </c>
       <c r="D81" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E81" s="39" t="n">
         <v>40781</v>
@@ -12928,13 +12874,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C82" s="23" t="n">
         <v>29</v>
       </c>
       <c r="D82" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E82" s="39" t="n">
         <v>41542</v>
@@ -12956,13 +12902,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C83" s="23" t="n">
         <v>29</v>
       </c>
       <c r="D83" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E83" s="39" t="n">
         <v>41838</v>
@@ -12984,13 +12930,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C84" s="23" t="n">
         <v>29</v>
       </c>
       <c r="D84" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E84" s="39" t="n">
         <v>42913</v>
@@ -13012,13 +12958,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C85" s="23" t="n">
         <v>29</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E85" s="39" t="n">
         <v>43476</v>
@@ -13040,13 +12986,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C86" s="23" t="n">
         <v>29</v>
       </c>
       <c r="D86" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E86" s="39" t="n">
         <v>43516</v>
@@ -13068,13 +13014,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C87" s="23" t="n">
         <v>30</v>
       </c>
       <c r="D87" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E87" s="39" t="n">
         <v>42116</v>
@@ -13096,13 +13042,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C88" s="23" t="n">
         <v>30</v>
       </c>
       <c r="D88" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E88" s="39" t="n">
         <v>42172</v>
@@ -13124,13 +13070,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C89" s="23" t="n">
         <v>30</v>
       </c>
       <c r="D89" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E89" s="39" t="n">
         <v>42350</v>
@@ -13152,13 +13098,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C90" s="23" t="n">
         <v>30</v>
       </c>
       <c r="D90" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E90" s="45" t="n">
         <v>42929</v>
@@ -13180,13 +13126,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C91" s="23" t="n">
         <v>30</v>
       </c>
       <c r="D91" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E91" s="39" t="n">
         <v>43272</v>
@@ -13208,13 +13154,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C92" s="23" t="n">
         <v>30</v>
       </c>
       <c r="D92" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E92" s="39" t="n">
         <v>43542</v>
@@ -13236,13 +13182,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C93" s="22" t="n">
         <v>31</v>
       </c>
       <c r="D93" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E93" s="39" t="n">
         <v>41523</v>
@@ -13264,13 +13210,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C94" s="22" t="n">
         <v>31</v>
       </c>
       <c r="D94" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E94" s="39" t="n">
         <v>41785</v>
@@ -13292,13 +13238,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C95" s="22" t="n">
         <v>31</v>
       </c>
       <c r="D95" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E95" s="39" t="n">
         <v>42173</v>
@@ -13320,13 +13266,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C96" s="22" t="n">
         <v>31</v>
       </c>
       <c r="D96" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E96" s="39" t="n">
         <v>42933</v>
@@ -13348,13 +13294,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C97" s="22" t="n">
         <v>31</v>
       </c>
       <c r="D97" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E97" s="39" t="n">
         <v>43476</v>
@@ -17383,7 +17329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -17393,38 +17339,38 @@
       <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="12.66"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1024" min="9" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1024" min="9" style="0" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>94</v>
-      </c>
       <c r="F1" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="36" t="s">
         <v>105</v>
-      </c>
-      <c r="G1" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17432,13 +17378,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="17" t="n">
         <v>13</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E2" s="39" t="n">
         <v>42116</v>
@@ -17458,13 +17404,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="23" t="n">
         <v>13</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E3" s="45" t="n">
         <v>42929</v>
@@ -17484,13 +17430,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="23" t="n">
         <v>13</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E4" s="39" t="n">
         <v>43542</v>
@@ -17510,13 +17456,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" s="23" t="n">
         <v>14</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E5" s="39" t="n">
         <v>41523</v>
@@ -17536,13 +17482,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="23" t="n">
         <v>14</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E6" s="39" t="n">
         <v>42933</v>
@@ -17562,13 +17508,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="23" t="n">
         <v>14</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E7" s="39" t="n">
         <v>43476</v>
@@ -17588,13 +17534,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="23" t="n">
         <v>15</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E8" s="39" t="n">
         <v>40781</v>
@@ -17614,13 +17560,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" s="23" t="n">
         <v>15</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E9" s="39" t="n">
         <v>41838</v>
@@ -17640,13 +17586,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" s="23" t="n">
         <v>15</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E10" s="39" t="n">
         <v>42913</v>
@@ -17666,13 +17612,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="23" t="n">
         <v>15</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E11" s="39" t="n">
         <v>43476</v>
@@ -17692,13 +17638,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12" s="23" t="n">
         <v>16</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E12" s="39" t="n">
         <v>42116</v>
@@ -17718,13 +17664,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" s="23" t="n">
         <v>17</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E13" s="39" t="n">
         <v>40956</v>
@@ -17744,13 +17690,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14" s="23" t="n">
         <v>17</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E14" s="39" t="n">
         <v>41785</v>
@@ -17770,13 +17716,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C15" s="23" t="n">
         <v>17</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E15" s="39" t="n">
         <v>43476</v>
@@ -17796,13 +17742,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C16" s="23" t="n">
         <v>18</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E16" s="39" t="n">
         <v>40781</v>
@@ -17822,13 +17768,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17" s="23" t="n">
         <v>18</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E17" s="39" t="n">
         <v>41838</v>
@@ -17848,13 +17794,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C18" s="23" t="n">
         <v>18</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E18" s="39" t="n">
         <v>43476</v>
@@ -17874,13 +17820,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" s="23" t="n">
         <v>18</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E19" s="39" t="n">
         <v>43516</v>
@@ -17900,13 +17846,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C20" s="23" t="n">
         <v>19</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E20" s="39" t="n">
         <v>42172</v>
@@ -17926,13 +17872,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C21" s="23" t="n">
         <v>19</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E21" s="39" t="n">
         <v>42350</v>
@@ -17952,13 +17898,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C22" s="23" t="n">
         <v>19</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E22" s="39" t="n">
         <v>43542</v>
@@ -17978,13 +17924,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C23" s="23" t="n">
         <v>21</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E23" s="39" t="n">
         <v>40781</v>
@@ -18004,13 +17950,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C24" s="23" t="n">
         <v>21</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E24" s="39" t="n">
         <v>41542</v>
@@ -18030,13 +17976,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C25" s="23" t="n">
         <v>21</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E25" s="39" t="n">
         <v>43476</v>
@@ -18056,13 +18002,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C26" s="23" t="n">
         <v>21</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E26" s="39" t="n">
         <v>43516</v>
@@ -18082,13 +18028,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C27" s="23" t="n">
         <v>22</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E27" s="39" t="n">
         <v>40781</v>
@@ -18108,13 +18054,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C28" s="23" t="n">
         <v>22</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E28" s="39" t="n">
         <v>41838</v>
@@ -18134,13 +18080,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C29" s="23" t="n">
         <v>22</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E29" s="39" t="n">
         <v>43516</v>
@@ -18160,13 +18106,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C30" s="23" t="n">
         <v>23</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E30" s="39" t="n">
         <v>42116</v>
@@ -18186,13 +18132,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C31" s="23" t="n">
         <v>23</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E31" s="39" t="n">
         <v>42350</v>
@@ -18212,13 +18158,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C32" s="23" t="n">
         <v>23</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E32" s="45" t="n">
         <v>42929</v>
@@ -18238,13 +18184,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C33" s="23" t="n">
         <v>23</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E33" s="39" t="n">
         <v>43542</v>
@@ -18264,13 +18210,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C34" s="23" t="n">
         <v>24</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E34" s="39" t="n">
         <v>40956</v>
@@ -18290,13 +18236,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C35" s="23" t="n">
         <v>24</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E35" s="39" t="n">
         <v>42173</v>
@@ -18316,13 +18262,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C36" s="23" t="n">
         <v>24</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E36" s="39" t="n">
         <v>43476</v>
@@ -18342,13 +18288,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C37" s="23" t="n">
         <v>25</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E37" s="39" t="n">
         <v>40781</v>
@@ -18368,13 +18314,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C38" s="23" t="n">
         <v>25</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E38" s="39" t="n">
         <v>41838</v>
@@ -18394,13 +18340,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C39" s="23" t="n">
         <v>25</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E39" s="39" t="n">
         <v>43476</v>
@@ -18420,13 +18366,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C40" s="23" t="n">
         <v>25</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E40" s="39" t="n">
         <v>43516</v>
@@ -18446,13 +18392,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C41" s="23" t="n">
         <v>26</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E41" s="39" t="n">
         <v>42116</v>
@@ -18472,13 +18418,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C42" s="23" t="n">
         <v>26</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E42" s="39" t="n">
         <v>42172</v>
@@ -18498,13 +18444,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C43" s="23" t="n">
         <v>26</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E43" s="39" t="n">
         <v>43272</v>
@@ -18524,13 +18470,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C44" s="23" t="n">
         <v>26</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E44" s="39" t="n">
         <v>43542</v>
@@ -18550,13 +18496,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C45" s="23" t="n">
         <v>27</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E45" s="39" t="n">
         <v>40956</v>
@@ -18576,13 +18522,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C46" s="23" t="n">
         <v>27</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E46" s="39" t="n">
         <v>42173</v>
@@ -18602,13 +18548,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C47" s="23" t="n">
         <v>27</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E47" s="39" t="n">
         <v>42933</v>
@@ -18628,13 +18574,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C48" s="23" t="n">
         <v>27</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E48" s="39" t="n">
         <v>43476</v>
@@ -18654,13 +18600,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C49" s="23" t="n">
         <v>28</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E49" s="39" t="n">
         <v>40781</v>
@@ -18680,13 +18626,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C50" s="23" t="n">
         <v>28</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E50" s="39" t="n">
         <v>41542</v>
@@ -18706,13 +18652,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C51" s="23" t="n">
         <v>28</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E51" s="39" t="n">
         <v>41838</v>
@@ -18732,13 +18678,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C52" s="23" t="n">
         <v>28</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E52" s="39" t="n">
         <v>43476</v>
@@ -18758,13 +18704,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C53" s="23" t="n">
         <v>28</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E53" s="39" t="n">
         <v>43516</v>
@@ -18784,13 +18730,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C54" s="23" t="n">
         <v>29</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E54" s="39" t="n">
         <v>40781</v>
@@ -18810,13 +18756,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C55" s="23" t="n">
         <v>29</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E55" s="39" t="n">
         <v>43516</v>
@@ -18836,13 +18782,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C56" s="23" t="n">
         <v>30</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E56" s="39" t="n">
         <v>42116</v>
@@ -18862,13 +18808,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C57" s="23" t="n">
         <v>30</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E57" s="39" t="n">
         <v>42172</v>
@@ -18888,13 +18834,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C58" s="23" t="n">
         <v>30</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E58" s="45" t="n">
         <v>42929</v>
@@ -18914,13 +18860,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C59" s="23" t="n">
         <v>30</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E59" s="39" t="n">
         <v>43272</v>
@@ -18940,13 +18886,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C60" s="23" t="n">
         <v>30</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E60" s="39" t="n">
         <v>43542</v>
@@ -18966,13 +18912,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C61" s="22" t="n">
         <v>31</v>
       </c>
       <c r="D61" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E61" s="39" t="n">
         <v>41523</v>
@@ -18992,13 +18938,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C62" s="22" t="n">
         <v>31</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E62" s="39" t="n">
         <v>41785</v>
@@ -19018,13 +18964,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C63" s="22" t="n">
         <v>31</v>
       </c>
       <c r="D63" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E63" s="39" t="n">
         <v>42933</v>
@@ -19044,13 +18990,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C64" s="22" t="n">
         <v>31</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E64" s="39" t="n">
         <v>43476</v>
@@ -19077,7 +19023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -19087,21 +19033,21 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
